--- a/data/trans_dic/P21_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 20,34</t>
+          <t>13,49; 20,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,5; 16,2</t>
+          <t>9,68; 16,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,38; 18,76</t>
+          <t>11,38; 18,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 28,85</t>
+          <t>20,27; 28,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 27,34</t>
+          <t>18,22; 27,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,46; 31,44</t>
+          <t>21,01; 31,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,69; 26,83</t>
+          <t>18,08; 26,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 27,89</t>
+          <t>20,91; 27,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,84; 21,57</t>
+          <t>16,09; 21,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,21</t>
+          <t>15,24; 21,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,52; 21,19</t>
+          <t>15,28; 20,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,61; 27,13</t>
+          <t>21,55; 27,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,25; 22,59</t>
+          <t>14,28; 22,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,43; 21,28</t>
+          <t>13,42; 21,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,28; 19,11</t>
+          <t>11,35; 18,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,79; 21,25</t>
+          <t>13,97; 21,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 29,08</t>
+          <t>19,98; 29,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 30,88</t>
+          <t>21,21; 30,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 27,26</t>
+          <t>17,81; 26,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,16; 30,24</t>
+          <t>22,33; 30,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 24,92</t>
+          <t>18,46; 24,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,16</t>
+          <t>18,01; 24,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 21,53</t>
+          <t>15,73; 21,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 23,97</t>
+          <t>18,46; 24,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,94; 21,24</t>
+          <t>14,64; 21,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,31; 28,7</t>
+          <t>21,39; 28,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,99</t>
+          <t>13,81; 20,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 21,79</t>
+          <t>4,7; 21,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,01; 34,79</t>
+          <t>21,82; 35,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 25,98</t>
+          <t>16,22; 26,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,96; 26,07</t>
+          <t>12,73; 25,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,75; 38,11</t>
+          <t>25,91; 37,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 23,35</t>
+          <t>17,38; 23,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,88; 26,54</t>
+          <t>20,81; 26,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 20,49</t>
+          <t>14,98; 20,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 24,39</t>
+          <t>7,57; 25,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 20,48</t>
+          <t>15,99; 20,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,51; 24,53</t>
+          <t>19,8; 24,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,53; 19,09</t>
+          <t>14,37; 18,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,18; 24,8</t>
+          <t>19,15; 24,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,45; 29,8</t>
+          <t>22,89; 29,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 32,03</t>
+          <t>25,78; 32,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,51; 27,6</t>
+          <t>21,26; 27,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,17; 70,08</t>
+          <t>27,44; 71,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,46; 23,07</t>
+          <t>19,55; 23,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,79; 26,93</t>
+          <t>22,8; 26,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,86</t>
+          <t>18,19; 21,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,01; 53,72</t>
+          <t>23,85; 51,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 17,87</t>
+          <t>10,44; 18,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,94</t>
+          <t>17,65; 25,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,64</t>
+          <t>13,08; 19,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,78; 24,59</t>
+          <t>16,9; 24,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,2; 27,94</t>
+          <t>20,8; 28,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,94; 33,98</t>
+          <t>27,41; 33,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,41; 23,51</t>
+          <t>17,71; 23,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,92; 24,87</t>
+          <t>15,73; 24,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,64; 22,95</t>
+          <t>17,45; 22,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,47; 29,58</t>
+          <t>24,3; 29,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,38; 20,88</t>
+          <t>16,39; 20,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,84; 23,42</t>
+          <t>17,13; 23,29</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 19,33</t>
+          <t>11,25; 19,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,73; 27,6</t>
+          <t>17,42; 27,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 27,35</t>
+          <t>17,82; 27,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,75; 29,37</t>
+          <t>12,31; 28,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,99; 25,66</t>
+          <t>21,01; 25,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,66; 30,34</t>
+          <t>24,42; 29,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,91; 22,69</t>
+          <t>18,0; 23,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,59; 23,91</t>
+          <t>18,61; 24,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,7; 23,75</t>
+          <t>19,83; 23,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,88; 28,77</t>
+          <t>24,17; 28,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,43; 23,16</t>
+          <t>18,41; 22,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,73; 23,81</t>
+          <t>18,19; 24,04</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,84; 18,37</t>
+          <t>15,81; 18,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 22,16</t>
+          <t>19,33; 22,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,46; 18,08</t>
+          <t>15,42; 18,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,01; 21,57</t>
+          <t>15,46; 21,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,91; 25,75</t>
+          <t>22,93; 25,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,12; 29,18</t>
+          <t>25,93; 29,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,17; 23,12</t>
+          <t>20,09; 22,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,58; 42,19</t>
+          <t>23,71; 43,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,81; 21,85</t>
+          <t>19,93; 21,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,24; 25,26</t>
+          <t>23,25; 25,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,27; 20,26</t>
+          <t>18,28; 20,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,1; 30,67</t>
+          <t>21,13; 33,1</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado un servicio de urgencias en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78159</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55041</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>64241</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>121437</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>68552</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>81148</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76102</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>109067</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>146711</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>136189</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>140343</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>230503</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>63894; 96490</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42339; 71212</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48837; 80174</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>102050; 144254</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>55868; 84037</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66082; 99833</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>62272; 91974</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93432; 124996</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>125537; 168343</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>114543; 159009</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>118149; 162139</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>204801; 258791</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>66854</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71208</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>55047</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77533</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>91222</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>86654</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>82339</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98799</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>158077</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>157862</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>137386</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>176332</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52281; 83893</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>56200; 88491</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42580; 70517</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>63179; 95128</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>74108; 107926</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71232; 103384</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>66162; 98241</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>85238; 115316</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>136030; 179916</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>135899; 182654</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>117463; 160258</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>153976; 200667</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>96404</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>156095</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>90455</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>87537</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46719</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>53396</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31141</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52277</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>143123</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>209491</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>121597</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>139814</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>79406; 115067</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>134403; 180146</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>72072; 109229</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31394; 145174</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36605; 59756</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>42205; 68452</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20949; 42492</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43070; 62949</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>123424; 164595</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>184930; 237079</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>102834; 142902</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>63144; 208660</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>225029</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>254649</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>191658</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>226630</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>188449</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>221811</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>201620</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>422536</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>413479</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>476460</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>393278</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>649166</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>197955; 253659</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>229089; 286145</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>164501; 217333</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>198201; 258311</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>163481; 210389</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>197615; 250363</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>175556; 224310</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>268403; 695838</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>381793; 452256</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>438598; 514974</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>358467; 429444</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>480168; 1033751</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>49075</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>108960</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>99894</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>96544</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>137459</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>231773</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>151634</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>177207</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>186534</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>340734</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>251528</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>273751</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36599; 63462</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>90141; 128747</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>80655; 118195</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>80273; 116961</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>118302; 160226</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>208461; 257352</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>130761; 176273</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>131890; 206636</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>160413; 210909</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>308895; 373467</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>222097; 281305</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>224937; 305884</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>44824</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>59665</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>63295</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>46063</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>291607</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>302533</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>218644</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>160892</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>336431</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>362198</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>281938</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>206955</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>33549; 57765</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>46504; 74439</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>51160; 79037</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>29611; 69503</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>262306; 321050</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>270919; 332104</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>194572; 250209</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>141141; 184979</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>306740; 370392</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>332697; 396794</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>251850; 312911</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>181733; 240166</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>560346</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>705618</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>564590</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>655743</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>824009</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>977317</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>761480</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1020778</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1384355</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1682934</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1326069</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1676522</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>516913; 605255</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>660780; 757479</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>520388; 609780</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>521695; 730731</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>774485; 874519</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>919661; 1029957</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>708126; 810484</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>846380; 1565380</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1324397; 1453579</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1619811; 1765827</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1261081; 1399464</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1467421; 2298363</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P21_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
